--- a/data/assets_MPEAST.xlsx
+++ b/data/assets_MPEAST.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4176E06-F27C-4DE4-A445-31D0EA7E2EC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19704B4C-1AFA-4E42-949F-9E4FDAF814B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mass Assets - 814" sheetId="2" r:id="rId1"/>
@@ -6990,13 +6990,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65ECE2F2-16E9-483D-BC4D-175BBE3DE544}">
   <dimension ref="A1:J815"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A786" workbookViewId="0">
-      <selection activeCell="M811" sqref="M811"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="10" width="17.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7028,7 +7031,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>223</v>
       </c>
@@ -7060,7 +7063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>229</v>
       </c>
@@ -7092,7 +7095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -7124,7 +7127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>234</v>
       </c>
@@ -7156,7 +7159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -7188,7 +7191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>241</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>245</v>
       </c>
@@ -7252,7 +7255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>251</v>
       </c>
@@ -7284,7 +7287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>254</v>
       </c>
@@ -7316,7 +7319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>256</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>260</v>
       </c>
@@ -7380,7 +7383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>262</v>
       </c>
@@ -7412,7 +7415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>264</v>
       </c>
@@ -7444,7 +7447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>268</v>
       </c>
@@ -7476,7 +7479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>270</v>
       </c>
@@ -7508,7 +7511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>275</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>277</v>
       </c>
@@ -7572,7 +7575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>279</v>
       </c>
@@ -7604,7 +7607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>282</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -7668,7 +7671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>286</v>
       </c>
@@ -7700,7 +7703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>288</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>290</v>
       </c>
@@ -7764,7 +7767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>292</v>
       </c>
@@ -7796,7 +7799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>294</v>
       </c>
@@ -7828,7 +7831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>295</v>
       </c>
@@ -7860,7 +7863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>297</v>
       </c>
@@ -7892,7 +7895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>300</v>
       </c>
@@ -7924,7 +7927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>305</v>
       </c>
@@ -7956,7 +7959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>307</v>
       </c>
@@ -7988,7 +7991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>309</v>
       </c>
@@ -8020,7 +8023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>311</v>
       </c>
@@ -8052,7 +8055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>313</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>315</v>
       </c>
@@ -8116,7 +8119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>317</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>318</v>
       </c>
@@ -8180,7 +8183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>321</v>
       </c>
@@ -8212,7 +8215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>323</v>
       </c>
@@ -8244,7 +8247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>324</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>327</v>
       </c>
@@ -8308,7 +8311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>329</v>
       </c>
@@ -8340,7 +8343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>331</v>
       </c>
@@ -8372,7 +8375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>332</v>
       </c>
@@ -8404,7 +8407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>334</v>
       </c>
@@ -8436,7 +8439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>336</v>
       </c>
@@ -8468,7 +8471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>338</v>
       </c>
@@ -8500,7 +8503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>340</v>
       </c>
@@ -8532,7 +8535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>342</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>344</v>
       </c>
@@ -8596,7 +8599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>348</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>349</v>
       </c>
@@ -8660,7 +8663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>351</v>
       </c>
@@ -8692,7 +8695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -8724,7 +8727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -8756,7 +8759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>360</v>
       </c>
@@ -8788,7 +8791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>363</v>
       </c>
@@ -8820,7 +8823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>368</v>
       </c>
@@ -8852,7 +8855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>372</v>
       </c>
@@ -8884,7 +8887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>374</v>
       </c>
@@ -8916,7 +8919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>377</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>384</v>
       </c>
@@ -8980,7 +8983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>386</v>
       </c>
@@ -9012,7 +9015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>389</v>
       </c>
@@ -9044,7 +9047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>391</v>
       </c>
@@ -9076,7 +9079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>393</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>395</v>
       </c>
@@ -9140,7 +9143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>401</v>
       </c>
@@ -9172,7 +9175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>403</v>
       </c>
@@ -9204,7 +9207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>405</v>
       </c>
@@ -9236,7 +9239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>408</v>
       </c>
@@ -9268,7 +9271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>410</v>
       </c>
@@ -9300,7 +9303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>412</v>
       </c>
@@ -9332,7 +9335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>414</v>
       </c>
@@ -9364,7 +9367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>418</v>
       </c>
@@ -9396,7 +9399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>420</v>
       </c>
@@ -9428,7 +9431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>422</v>
       </c>
@@ -9460,7 +9463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>424</v>
       </c>
@@ -9492,7 +9495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>426</v>
       </c>
@@ -9524,7 +9527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
         <v>428</v>
       </c>
@@ -9556,7 +9559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
         <v>431</v>
       </c>
@@ -9588,7 +9591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
         <v>433</v>
       </c>
@@ -9620,7 +9623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
         <v>435</v>
       </c>
@@ -9652,7 +9655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
         <v>441</v>
       </c>
@@ -9684,7 +9687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
         <v>444</v>
       </c>
@@ -9716,7 +9719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
         <v>447</v>
       </c>
@@ -9748,7 +9751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
         <v>449</v>
       </c>
@@ -9780,7 +9783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
         <v>451</v>
       </c>
@@ -9812,7 +9815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
         <v>454</v>
       </c>
@@ -9844,7 +9847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
         <v>456</v>
       </c>
@@ -9876,7 +9879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
         <v>458</v>
       </c>
@@ -9908,7 +9911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
         <v>459</v>
       </c>
@@ -9940,7 +9943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
         <v>461</v>
       </c>
@@ -9972,7 +9975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
         <v>462</v>
       </c>
@@ -10004,7 +10007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
         <v>464</v>
       </c>
@@ -10036,7 +10039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
         <v>466</v>
       </c>
@@ -10068,7 +10071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
         <v>468</v>
       </c>
@@ -10100,7 +10103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
         <v>469</v>
       </c>
@@ -10132,7 +10135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
         <v>471</v>
       </c>
@@ -10164,7 +10167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
         <v>473</v>
       </c>
@@ -10196,7 +10199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
         <v>474</v>
       </c>
@@ -10228,7 +10231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
         <v>476</v>
       </c>
@@ -10260,7 +10263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
         <v>478</v>
       </c>
@@ -10292,7 +10295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
         <v>481</v>
       </c>
@@ -10324,7 +10327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
         <v>483</v>
       </c>
@@ -10356,7 +10359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
         <v>484</v>
       </c>
@@ -10388,7 +10391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
         <v>486</v>
       </c>
@@ -10420,7 +10423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
         <v>488</v>
       </c>
@@ -10452,7 +10455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
         <v>490</v>
       </c>
@@ -10484,7 +10487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
         <v>491</v>
       </c>
@@ -10516,7 +10519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
         <v>493</v>
       </c>
@@ -10548,7 +10551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
         <v>495</v>
       </c>
@@ -10580,7 +10583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
         <v>497</v>
       </c>
@@ -10612,7 +10615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
         <v>498</v>
       </c>
@@ -10644,7 +10647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
         <v>500</v>
       </c>
@@ -10676,7 +10679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
         <v>502</v>
       </c>
@@ -10708,7 +10711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
         <v>506</v>
       </c>
@@ -10740,7 +10743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
         <v>508</v>
       </c>
@@ -10772,7 +10775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
         <v>510</v>
       </c>
@@ -10804,7 +10807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
         <v>512</v>
       </c>
@@ -10836,7 +10839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
         <v>515</v>
       </c>
@@ -10868,7 +10871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
         <v>517</v>
       </c>
@@ -10900,7 +10903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
         <v>519</v>
       </c>
@@ -10932,7 +10935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
         <v>521</v>
       </c>
@@ -10964,7 +10967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
         <v>523</v>
       </c>
@@ -10996,7 +10999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
         <v>525</v>
       </c>
@@ -11028,7 +11031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
         <v>527</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
         <v>528</v>
       </c>
@@ -11092,7 +11095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
         <v>530</v>
       </c>
@@ -11124,7 +11127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
         <v>532</v>
       </c>
@@ -11156,7 +11159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
         <v>533</v>
       </c>
@@ -11188,7 +11191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
         <v>535</v>
       </c>
@@ -11220,7 +11223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
         <v>537</v>
       </c>
@@ -11252,7 +11255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
         <v>538</v>
       </c>
@@ -11284,7 +11287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
         <v>539</v>
       </c>
@@ -11316,7 +11319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
         <v>541</v>
       </c>
@@ -11348,7 +11351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
         <v>543</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
         <v>545</v>
       </c>
@@ -11412,7 +11415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
         <v>547</v>
       </c>
@@ -11444,7 +11447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
         <v>549</v>
       </c>
@@ -11476,7 +11479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
         <v>550</v>
       </c>
@@ -11508,7 +11511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
         <v>552</v>
       </c>
@@ -11540,7 +11543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
         <v>554</v>
       </c>
@@ -11572,7 +11575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
         <v>556</v>
       </c>
@@ -11604,7 +11607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
         <v>557</v>
       </c>
@@ -11636,7 +11639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
         <v>558</v>
       </c>
@@ -11668,7 +11671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
         <v>560</v>
       </c>
@@ -11700,7 +11703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
         <v>562</v>
       </c>
@@ -11732,7 +11735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
         <v>564</v>
       </c>
@@ -11764,7 +11767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
         <v>566</v>
       </c>
@@ -11796,7 +11799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
         <v>567</v>
       </c>
@@ -11828,7 +11831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
         <v>568</v>
       </c>
@@ -11860,7 +11863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
         <v>570</v>
       </c>
@@ -11892,7 +11895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
         <v>572</v>
       </c>
@@ -11924,7 +11927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
         <v>574</v>
       </c>
@@ -11956,7 +11959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
         <v>576</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
         <v>580</v>
       </c>
@@ -12020,7 +12023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
         <v>583</v>
       </c>
@@ -12052,7 +12055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
         <v>586</v>
       </c>
@@ -12084,7 +12087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
         <v>590</v>
       </c>
@@ -12116,7 +12119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
         <v>592</v>
       </c>
@@ -12148,7 +12151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A162" t="s">
         <v>595</v>
       </c>
@@ -12180,7 +12183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A163" t="s">
         <v>598</v>
       </c>
@@ -12212,7 +12215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A164" t="s">
         <v>601</v>
       </c>
@@ -12244,7 +12247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A165" t="s">
         <v>606</v>
       </c>
@@ -12276,7 +12279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A166" t="s">
         <v>609</v>
       </c>
@@ -12308,7 +12311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A167" t="s">
         <v>611</v>
       </c>
@@ -12340,7 +12343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A168" t="s">
         <v>617</v>
       </c>
@@ -12372,7 +12375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A169" t="s">
         <v>623</v>
       </c>
@@ -12404,7 +12407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A170" t="s">
         <v>625</v>
       </c>
@@ -12436,7 +12439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A171" t="s">
         <v>627</v>
       </c>
@@ -12468,7 +12471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A172" t="s">
         <v>630</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A173" t="s">
         <v>633</v>
       </c>
@@ -12532,7 +12535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A174" t="s">
         <v>635</v>
       </c>
@@ -12564,7 +12567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A175" t="s">
         <v>637</v>
       </c>
@@ -12596,7 +12599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A176" t="s">
         <v>640</v>
       </c>
@@ -12628,7 +12631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A177" t="s">
         <v>644</v>
       </c>
@@ -12660,7 +12663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A178" t="s">
         <v>646</v>
       </c>
@@ -12692,7 +12695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A179" t="s">
         <v>649</v>
       </c>
@@ -12724,7 +12727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A180" t="s">
         <v>651</v>
       </c>
@@ -12756,7 +12759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A181" t="s">
         <v>653</v>
       </c>
@@ -12788,7 +12791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A182" t="s">
         <v>656</v>
       </c>
@@ -12820,7 +12823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A183" t="s">
         <v>662</v>
       </c>
@@ -12852,7 +12855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A184" t="s">
         <v>664</v>
       </c>
@@ -12884,7 +12887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A185" t="s">
         <v>669</v>
       </c>
@@ -12916,7 +12919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A186" t="s">
         <v>670</v>
       </c>
@@ -12948,7 +12951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A187" t="s">
         <v>672</v>
       </c>
@@ -12980,7 +12983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A188" t="s">
         <v>674</v>
       </c>
@@ -13012,7 +13015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A189" t="s">
         <v>676</v>
       </c>
@@ -13044,7 +13047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A190" t="s">
         <v>680</v>
       </c>
@@ -13076,7 +13079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A191" t="s">
         <v>682</v>
       </c>
@@ -13108,7 +13111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A192" t="s">
         <v>684</v>
       </c>
@@ -13140,7 +13143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A193" t="s">
         <v>691</v>
       </c>
@@ -13172,7 +13175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A194" t="s">
         <v>697</v>
       </c>
@@ -13204,7 +13207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A195" t="s">
         <v>701</v>
       </c>
@@ -13236,7 +13239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A196" t="s">
         <v>703</v>
       </c>
@@ -13268,7 +13271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A197" t="s">
         <v>705</v>
       </c>
@@ -13300,7 +13303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A198" t="s">
         <v>709</v>
       </c>
@@ -13332,7 +13335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A199" t="s">
         <v>710</v>
       </c>
@@ -13364,7 +13367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A200" t="s">
         <v>712</v>
       </c>
@@ -13396,7 +13399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A201" t="s">
         <v>714</v>
       </c>
@@ -13428,7 +13431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A202" t="s">
         <v>716</v>
       </c>
@@ -13460,7 +13463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A203" t="s">
         <v>718</v>
       </c>
@@ -13492,7 +13495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A204" t="s">
         <v>720</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A205" t="s">
         <v>722</v>
       </c>
@@ -13556,7 +13559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A206" t="s">
         <v>724</v>
       </c>
@@ -13588,7 +13591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A207" t="s">
         <v>726</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A208" t="s">
         <v>728</v>
       </c>
@@ -13652,7 +13655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="209" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A209" t="s">
         <v>729</v>
       </c>
@@ -13684,7 +13687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="210" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A210" t="s">
         <v>731</v>
       </c>
@@ -13716,7 +13719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="211" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A211" t="s">
         <v>733</v>
       </c>
@@ -13748,7 +13751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="212" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A212" t="s">
         <v>735</v>
       </c>
@@ -13780,7 +13783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="213" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A213" t="s">
         <v>737</v>
       </c>
@@ -13812,7 +13815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="214" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A214" t="s">
         <v>739</v>
       </c>
@@ -13844,7 +13847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="215" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A215" t="s">
         <v>745</v>
       </c>
@@ -13876,7 +13879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="216" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A216" t="s">
         <v>747</v>
       </c>
@@ -13908,7 +13911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="217" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A217" t="s">
         <v>752</v>
       </c>
@@ -13940,7 +13943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A218" t="s">
         <v>754</v>
       </c>
@@ -13972,7 +13975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="219" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A219" t="s">
         <v>756</v>
       </c>
@@ -14004,7 +14007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A220" t="s">
         <v>757</v>
       </c>
@@ -14036,7 +14039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A221" t="s">
         <v>758</v>
       </c>
@@ -14068,7 +14071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="222" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A222" t="s">
         <v>760</v>
       </c>
@@ -14100,7 +14103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="223" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A223" t="s">
         <v>762</v>
       </c>
@@ -14132,7 +14135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="224" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A224" t="s">
         <v>764</v>
       </c>
@@ -14164,7 +14167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="225" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A225" t="s">
         <v>765</v>
       </c>
@@ -14196,7 +14199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="226" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A226" t="s">
         <v>767</v>
       </c>
@@ -14228,7 +14231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="227" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A227" t="s">
         <v>769</v>
       </c>
@@ -14260,7 +14263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="228" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A228" t="s">
         <v>771</v>
       </c>
@@ -14292,7 +14295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="229" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A229" t="s">
         <v>773</v>
       </c>
@@ -14324,7 +14327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="230" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A230" t="s">
         <v>775</v>
       </c>
@@ -14356,7 +14359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="231" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A231" t="s">
         <v>776</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="232" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A232" t="s">
         <v>781</v>
       </c>
@@ -14420,7 +14423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A233" t="s">
         <v>783</v>
       </c>
@@ -14452,7 +14455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="234" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A234" t="s">
         <v>785</v>
       </c>
@@ -14484,7 +14487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="235" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A235" t="s">
         <v>789</v>
       </c>
@@ -14516,7 +14519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="236" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A236" t="s">
         <v>792</v>
       </c>
@@ -14548,7 +14551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="237" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A237" t="s">
         <v>794</v>
       </c>
@@ -14580,7 +14583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="238" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A238" t="s">
         <v>796</v>
       </c>
@@ -14612,7 +14615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="239" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A239" t="s">
         <v>798</v>
       </c>
@@ -14644,7 +14647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="240" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A240" t="s">
         <v>799</v>
       </c>
@@ -14676,7 +14679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="241" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A241" t="s">
         <v>801</v>
       </c>
@@ -14708,7 +14711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="242" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A242" t="s">
         <v>803</v>
       </c>
@@ -14740,7 +14743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="243" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A243" t="s">
         <v>807</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="244" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A244" t="s">
         <v>809</v>
       </c>
@@ -14804,7 +14807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="245" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A245" t="s">
         <v>811</v>
       </c>
@@ -14836,7 +14839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A246" t="s">
         <v>813</v>
       </c>
@@ -14868,7 +14871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="247" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A247" t="s">
         <v>815</v>
       </c>
@@ -14900,7 +14903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="248" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A248" t="s">
         <v>817</v>
       </c>
@@ -14932,7 +14935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="249" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A249" t="s">
         <v>819</v>
       </c>
@@ -14964,7 +14967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="250" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A250" t="s">
         <v>821</v>
       </c>
@@ -14996,7 +14999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="251" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A251" t="s">
         <v>823</v>
       </c>
@@ -15028,7 +15031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A252" t="s">
         <v>826</v>
       </c>
@@ -15060,7 +15063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="253" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A253" t="s">
         <v>828</v>
       </c>
@@ -15092,7 +15095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="254" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A254" t="s">
         <v>830</v>
       </c>
@@ -15124,7 +15127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="255" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A255" t="s">
         <v>832</v>
       </c>
@@ -15156,7 +15159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="256" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A256" t="s">
         <v>834</v>
       </c>
@@ -15188,7 +15191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A257" t="s">
         <v>836</v>
       </c>
@@ -15220,7 +15223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A258" t="s">
         <v>838</v>
       </c>
@@ -15252,7 +15255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A259" t="s">
         <v>840</v>
       </c>
@@ -15284,7 +15287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A260" t="s">
         <v>841</v>
       </c>
@@ -15316,7 +15319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A261" t="s">
         <v>843</v>
       </c>
@@ -15348,7 +15351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A262" t="s">
         <v>845</v>
       </c>
@@ -15380,7 +15383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A263" t="s">
         <v>846</v>
       </c>
@@ -15412,7 +15415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A264" t="s">
         <v>848</v>
       </c>
@@ -15444,7 +15447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A265" t="s">
         <v>850</v>
       </c>
@@ -15476,7 +15479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A266" t="s">
         <v>852</v>
       </c>
@@ -15508,7 +15511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A267" t="s">
         <v>853</v>
       </c>
@@ -15540,7 +15543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A268" t="s">
         <v>855</v>
       </c>
@@ -15572,7 +15575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A269" t="s">
         <v>857</v>
       </c>
@@ -15604,7 +15607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A270" t="s">
         <v>859</v>
       </c>
@@ -15636,7 +15639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A271" t="s">
         <v>861</v>
       </c>
@@ -15668,7 +15671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A272" t="s">
         <v>865</v>
       </c>
@@ -15700,7 +15703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="273" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A273" t="s">
         <v>869</v>
       </c>
@@ -15732,7 +15735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="274" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A274" t="s">
         <v>871</v>
       </c>
@@ -15764,7 +15767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="275" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A275" t="s">
         <v>874</v>
       </c>
@@ -15796,7 +15799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="276" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A276" t="s">
         <v>875</v>
       </c>
@@ -15828,7 +15831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="277" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A277" t="s">
         <v>878</v>
       </c>
@@ -15860,7 +15863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A278" t="s">
         <v>881</v>
       </c>
@@ -15892,7 +15895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="279" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A279" t="s">
         <v>883</v>
       </c>
@@ -15924,7 +15927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="280" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A280" t="s">
         <v>887</v>
       </c>
@@ -15956,7 +15959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="281" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A281" t="s">
         <v>889</v>
       </c>
@@ -15988,7 +15991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="282" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A282" t="s">
         <v>892</v>
       </c>
@@ -16020,7 +16023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="283" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A283" t="s">
         <v>894</v>
       </c>
@@ -16052,7 +16055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="284" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A284" t="s">
         <v>899</v>
       </c>
@@ -16084,7 +16087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A285" t="s">
         <v>901</v>
       </c>
@@ -16116,7 +16119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="286" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A286" t="s">
         <v>905</v>
       </c>
@@ -16148,7 +16151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="287" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A287" t="s">
         <v>907</v>
       </c>
@@ -16180,7 +16183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="288" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A288" t="s">
         <v>909</v>
       </c>
@@ -16212,7 +16215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A289" t="s">
         <v>911</v>
       </c>
@@ -16244,7 +16247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A290" t="s">
         <v>915</v>
       </c>
@@ -16276,7 +16279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A291" t="s">
         <v>918</v>
       </c>
@@ -16308,7 +16311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A292" t="s">
         <v>920</v>
       </c>
@@ -16340,7 +16343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A293" t="s">
         <v>922</v>
       </c>
@@ -16372,7 +16375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A294" t="s">
         <v>924</v>
       </c>
@@ -16404,7 +16407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A295" t="s">
         <v>926</v>
       </c>
@@ -16436,7 +16439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A296" t="s">
         <v>928</v>
       </c>
@@ -16468,7 +16471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A297" t="s">
         <v>931</v>
       </c>
@@ -16500,7 +16503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A298" t="s">
         <v>933</v>
       </c>
@@ -16532,7 +16535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A299" t="s">
         <v>935</v>
       </c>
@@ -16564,7 +16567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A300" t="s">
         <v>937</v>
       </c>
@@ -16596,7 +16599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A301" t="s">
         <v>939</v>
       </c>
@@ -16628,7 +16631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A302" t="s">
         <v>941</v>
       </c>
@@ -16660,7 +16663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A303" t="s">
         <v>944</v>
       </c>
@@ -16692,7 +16695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A304" t="s">
         <v>946</v>
       </c>
@@ -16724,7 +16727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="305" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A305" t="s">
         <v>949</v>
       </c>
@@ -16756,7 +16759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="306" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A306" t="s">
         <v>951</v>
       </c>
@@ -16788,7 +16791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="307" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A307" t="s">
         <v>953</v>
       </c>
@@ -16820,7 +16823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="308" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A308" t="s">
         <v>955</v>
       </c>
@@ -16852,7 +16855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="309" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A309" t="s">
         <v>956</v>
       </c>
@@ -16884,7 +16887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="310" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A310" t="s">
         <v>958</v>
       </c>
@@ -16916,7 +16919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="311" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A311" t="s">
         <v>962</v>
       </c>
@@ -16948,7 +16951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A312" t="s">
         <v>964</v>
       </c>
@@ -16980,7 +16983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A313" t="s">
         <v>965</v>
       </c>
@@ -17012,7 +17015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="314" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A314" t="s">
         <v>967</v>
       </c>
@@ -17044,7 +17047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="315" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A315" t="s">
         <v>968</v>
       </c>
@@ -17076,7 +17079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="316" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A316" t="s">
         <v>970</v>
       </c>
@@ -17108,7 +17111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="317" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A317" t="s">
         <v>973</v>
       </c>
@@ -17140,7 +17143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A318" t="s">
         <v>979</v>
       </c>
@@ -17172,7 +17175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A319" t="s">
         <v>981</v>
       </c>
@@ -17204,7 +17207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="320" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A320" t="s">
         <v>984</v>
       </c>
@@ -17236,7 +17239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A321" t="s">
         <v>987</v>
       </c>
@@ -17268,7 +17271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="322" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A322" t="s">
         <v>993</v>
       </c>
@@ -17300,7 +17303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A323" t="s">
         <v>995</v>
       </c>
@@ -17332,7 +17335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="324" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A324" t="s">
         <v>1002</v>
       </c>
@@ -17364,7 +17367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="325" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A325" t="s">
         <v>1005</v>
       </c>
@@ -17396,7 +17399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="326" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A326" t="s">
         <v>1007</v>
       </c>
@@ -17428,7 +17431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A327" t="s">
         <v>1009</v>
       </c>
@@ -17460,7 +17463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A328" t="s">
         <v>1011</v>
       </c>
@@ -17492,7 +17495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="329" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A329" t="s">
         <v>1012</v>
       </c>
@@ -17524,7 +17527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="330" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A330" t="s">
         <v>1014</v>
       </c>
@@ -17556,7 +17559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="331" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A331" t="s">
         <v>1016</v>
       </c>
@@ -17588,7 +17591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="332" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A332" t="s">
         <v>1018</v>
       </c>
@@ -17620,7 +17623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="333" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A333" t="s">
         <v>1020</v>
       </c>
@@ -17652,7 +17655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A334" t="s">
         <v>1022</v>
       </c>
@@ -17684,7 +17687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="335" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A335" t="s">
         <v>1023</v>
       </c>
@@ -17716,7 +17719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="336" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A336" t="s">
         <v>1025</v>
       </c>
@@ -17748,7 +17751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="337" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A337" t="s">
         <v>1027</v>
       </c>
@@ -17780,7 +17783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="338" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A338" t="s">
         <v>1029</v>
       </c>
@@ -17812,7 +17815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A339" t="s">
         <v>1031</v>
       </c>
@@ -17844,7 +17847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="340" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A340" t="s">
         <v>1033</v>
       </c>
@@ -17876,7 +17879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="341" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A341" t="s">
         <v>1034</v>
       </c>
@@ -17908,7 +17911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A342" t="s">
         <v>1036</v>
       </c>
@@ -17940,7 +17943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="343" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A343" t="s">
         <v>1041</v>
       </c>
@@ -17972,7 +17975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="344" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A344" t="s">
         <v>1044</v>
       </c>
@@ -18004,7 +18007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="345" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A345" t="s">
         <v>1046</v>
       </c>
@@ -18036,7 +18039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="346" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A346" t="s">
         <v>1048</v>
       </c>
@@ -18068,7 +18071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="347" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A347" t="s">
         <v>1052</v>
       </c>
@@ -18100,7 +18103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="348" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A348" t="s">
         <v>1056</v>
       </c>
@@ -18132,7 +18135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A349" t="s">
         <v>1059</v>
       </c>
@@ -18164,7 +18167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="350" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A350" t="s">
         <v>1061</v>
       </c>
@@ -18196,7 +18199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="351" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A351" t="s">
         <v>1065</v>
       </c>
@@ -18228,7 +18231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="352" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A352" t="s">
         <v>1068</v>
       </c>
@@ -18260,7 +18263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="353" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A353" t="s">
         <v>1070</v>
       </c>
@@ -18292,7 +18295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A354" t="s">
         <v>1072</v>
       </c>
@@ -18324,7 +18327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="355" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A355" t="s">
         <v>1074</v>
       </c>
@@ -18356,7 +18359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="356" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A356" t="s">
         <v>1076</v>
       </c>
@@ -18388,7 +18391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="357" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A357" t="s">
         <v>1078</v>
       </c>
@@ -18420,7 +18423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A358" t="s">
         <v>1080</v>
       </c>
@@ -18452,7 +18455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="359" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A359" t="s">
         <v>1081</v>
       </c>
@@ -18484,7 +18487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="360" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A360" t="s">
         <v>1083</v>
       </c>
@@ -18516,7 +18519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="361" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A361" t="s">
         <v>1084</v>
       </c>
@@ -18548,7 +18551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="362" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A362" t="s">
         <v>1086</v>
       </c>
@@ -18580,7 +18583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="363" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A363" t="s">
         <v>1088</v>
       </c>
@@ -18612,7 +18615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="364" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A364" t="s">
         <v>1090</v>
       </c>
@@ -18644,7 +18647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="365" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A365" t="s">
         <v>1092</v>
       </c>
@@ -18676,7 +18679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="366" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A366" t="s">
         <v>1094</v>
       </c>
@@ -18708,7 +18711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="367" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A367" t="s">
         <v>1095</v>
       </c>
@@ -18740,7 +18743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="368" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A368" t="s">
         <v>1097</v>
       </c>
@@ -18772,7 +18775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="369" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A369" t="s">
         <v>1099</v>
       </c>
@@ -18804,7 +18807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="370" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A370" t="s">
         <v>1101</v>
       </c>
@@ -18836,7 +18839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="371" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A371" t="s">
         <v>1103</v>
       </c>
@@ -18868,7 +18871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A372" t="s">
         <v>1105</v>
       </c>
@@ -18900,7 +18903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="373" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A373" t="s">
         <v>1109</v>
       </c>
@@ -18932,7 +18935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="374" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A374" t="s">
         <v>1114</v>
       </c>
@@ -18964,7 +18967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="375" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A375" t="s">
         <v>1117</v>
       </c>
@@ -18996,7 +18999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="376" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A376" t="s">
         <v>1119</v>
       </c>
@@ -19028,7 +19031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="377" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A377" t="s">
         <v>1121</v>
       </c>
@@ -19060,7 +19063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="378" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A378" t="s">
         <v>1123</v>
       </c>
@@ -19092,7 +19095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="379" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A379" t="s">
         <v>1125</v>
       </c>
@@ -19124,7 +19127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="380" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A380" t="s">
         <v>1126</v>
       </c>
@@ -19156,7 +19159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="381" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A381" t="s">
         <v>1128</v>
       </c>
@@ -19188,7 +19191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="382" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A382" t="s">
         <v>1130</v>
       </c>
@@ -19220,7 +19223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="383" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A383" t="s">
         <v>1132</v>
       </c>
@@ -19252,7 +19255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="384" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A384" t="s">
         <v>1133</v>
       </c>
@@ -19284,7 +19287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A385" t="s">
         <v>1135</v>
       </c>
@@ -19316,7 +19319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A386" t="s">
         <v>1137</v>
       </c>
@@ -19348,7 +19351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A387" t="s">
         <v>1139</v>
       </c>
@@ -19380,7 +19383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A388" t="s">
         <v>1140</v>
       </c>
@@ -19412,7 +19415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A389" t="s">
         <v>1142</v>
       </c>
@@ -19444,7 +19447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A390" t="s">
         <v>1144</v>
       </c>
@@ -19476,7 +19479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A391" t="s">
         <v>1146</v>
       </c>
@@ -19508,7 +19511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A392" t="s">
         <v>1147</v>
       </c>
@@ -19540,7 +19543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A393" t="s">
         <v>1149</v>
       </c>
@@ -19572,7 +19575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A394" t="s">
         <v>1151</v>
       </c>
@@ -19604,7 +19607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A395" t="s">
         <v>1153</v>
       </c>
@@ -19636,7 +19639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A396" t="s">
         <v>1154</v>
       </c>
@@ -19668,7 +19671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A397" t="s">
         <v>1156</v>
       </c>
@@ -19700,7 +19703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A398" t="s">
         <v>1158</v>
       </c>
@@ -19732,7 +19735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A399" t="s">
         <v>1160</v>
       </c>
@@ -19764,7 +19767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A400" t="s">
         <v>1161</v>
       </c>
@@ -19796,7 +19799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="401" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A401" t="s">
         <v>1163</v>
       </c>
@@ -19828,7 +19831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="402" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A402" t="s">
         <v>1165</v>
       </c>
@@ -19860,7 +19863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A403" t="s">
         <v>1167</v>
       </c>
@@ -19892,7 +19895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="404" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A404" t="s">
         <v>1169</v>
       </c>
@@ -19924,7 +19927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="405" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A405" t="s">
         <v>1170</v>
       </c>
@@ -19956,7 +19959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="406" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A406" t="s">
         <v>1172</v>
       </c>
@@ -19988,7 +19991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A407" t="s">
         <v>1174</v>
       </c>
@@ -20020,7 +20023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="408" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A408" t="s">
         <v>1176</v>
       </c>
@@ -20052,7 +20055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="409" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A409" t="s">
         <v>1177</v>
       </c>
@@ -20084,7 +20087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="410" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A410" t="s">
         <v>1179</v>
       </c>
@@ -20116,7 +20119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="411" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A411" t="s">
         <v>1181</v>
       </c>
@@ -20148,7 +20151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="412" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A412" t="s">
         <v>1183</v>
       </c>
@@ -20180,7 +20183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="413" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A413" t="s">
         <v>1184</v>
       </c>
@@ -20212,7 +20215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="414" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A414" t="s">
         <v>1187</v>
       </c>
@@ -20244,7 +20247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="415" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A415" t="s">
         <v>1190</v>
       </c>
@@ -20276,7 +20279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="416" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A416" t="s">
         <v>1193</v>
       </c>
@@ -20308,7 +20311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="417" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A417" t="s">
         <v>1199</v>
       </c>
@@ -20340,7 +20343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="418" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A418" t="s">
         <v>1203</v>
       </c>
@@ -20372,7 +20375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="419" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A419" t="s">
         <v>1207</v>
       </c>
@@ -20404,7 +20407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="420" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A420" t="s">
         <v>1211</v>
       </c>
@@ -20436,7 +20439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="421" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A421" t="s">
         <v>1213</v>
       </c>
@@ -20468,7 +20471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="422" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A422" t="s">
         <v>1215</v>
       </c>
@@ -20500,7 +20503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="423" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A423" t="s">
         <v>1217</v>
       </c>
@@ -20532,7 +20535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="424" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A424" t="s">
         <v>1219</v>
       </c>
@@ -20564,7 +20567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="425" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A425" t="s">
         <v>1221</v>
       </c>
@@ -20596,7 +20599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="426" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A426" t="s">
         <v>1225</v>
       </c>
@@ -20628,7 +20631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="427" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A427" t="s">
         <v>1227</v>
       </c>
@@ -20660,7 +20663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="428" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A428" t="s">
         <v>1230</v>
       </c>
@@ -20692,7 +20695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="429" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A429" t="s">
         <v>1235</v>
       </c>
@@ -20724,7 +20727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="430" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A430" t="s">
         <v>1240</v>
       </c>
@@ -20756,7 +20759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="431" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A431" t="s">
         <v>1245</v>
       </c>
@@ -20788,7 +20791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="432" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A432" t="s">
         <v>1247</v>
       </c>
@@ -20820,7 +20823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="433" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A433" t="s">
         <v>1248</v>
       </c>
@@ -20852,7 +20855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="434" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A434" t="s">
         <v>1250</v>
       </c>
@@ -20884,7 +20887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="435" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A435" t="s">
         <v>1252</v>
       </c>
@@ -20916,7 +20919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="436" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A436" t="s">
         <v>1254</v>
       </c>
@@ -20948,7 +20951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="437" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A437" t="s">
         <v>1256</v>
       </c>
@@ -20980,7 +20983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="438" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A438" t="s">
         <v>1258</v>
       </c>
@@ -21012,7 +21015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="439" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A439" t="s">
         <v>1259</v>
       </c>
@@ -21044,7 +21047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A440" t="s">
         <v>1261</v>
       </c>
@@ -21076,7 +21079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A441" t="s">
         <v>1264</v>
       </c>
@@ -21108,7 +21111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="442" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A442" t="s">
         <v>1266</v>
       </c>
@@ -21140,7 +21143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="443" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A443" t="s">
         <v>1268</v>
       </c>
@@ -21172,7 +21175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="444" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A444" t="s">
         <v>1270</v>
       </c>
@@ -21204,7 +21207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="445" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A445" t="s">
         <v>1276</v>
       </c>
@@ -21236,7 +21239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="446" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A446" t="s">
         <v>1283</v>
       </c>
@@ -21268,7 +21271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="447" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A447" t="s">
         <v>1288</v>
       </c>
@@ -21300,7 +21303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="448" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A448" t="s">
         <v>1293</v>
       </c>
@@ -21332,7 +21335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A449" t="s">
         <v>1295</v>
       </c>
@@ -21364,7 +21367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="450" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A450" t="s">
         <v>1298</v>
       </c>
@@ -21396,7 +21399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="451" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A451" t="s">
         <v>1300</v>
       </c>
@@ -21428,7 +21431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="452" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A452" t="s">
         <v>1302</v>
       </c>
@@ -21460,7 +21463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="453" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A453" t="s">
         <v>1306</v>
       </c>
@@ -21492,7 +21495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="454" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A454" t="s">
         <v>1308</v>
       </c>
@@ -21524,7 +21527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="455" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A455" t="s">
         <v>1310</v>
       </c>
@@ -21556,7 +21559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="456" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A456" t="s">
         <v>1312</v>
       </c>
@@ -21588,7 +21591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="457" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A457" t="s">
         <v>1314</v>
       </c>
@@ -21620,7 +21623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="458" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A458" t="s">
         <v>1316</v>
       </c>
@@ -21652,7 +21655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="459" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A459" t="s">
         <v>1318</v>
       </c>
@@ -21684,7 +21687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="460" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A460" t="s">
         <v>1320</v>
       </c>
@@ -21716,7 +21719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="461" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A461" t="s">
         <v>1322</v>
       </c>
@@ -21748,7 +21751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="462" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A462" t="s">
         <v>1326</v>
       </c>
@@ -21780,7 +21783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="463" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A463" t="s">
         <v>1328</v>
       </c>
@@ -21812,7 +21815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="464" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A464" t="s">
         <v>1330</v>
       </c>
@@ -21844,7 +21847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A465" t="s">
         <v>1332</v>
       </c>
@@ -21876,7 +21879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="466" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A466" t="s">
         <v>1334</v>
       </c>
@@ -21908,7 +21911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="467" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A467" t="s">
         <v>1336</v>
       </c>
@@ -21940,7 +21943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="468" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A468" t="s">
         <v>1337</v>
       </c>
@@ -21972,7 +21975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="469" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A469" t="s">
         <v>1340</v>
       </c>
@@ -22004,7 +22007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="470" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A470" t="s">
         <v>1345</v>
       </c>
@@ -22036,7 +22039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="471" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A471" t="s">
         <v>1347</v>
       </c>
@@ -22068,7 +22071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A472" t="s">
         <v>1350</v>
       </c>
@@ -22100,7 +22103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A473" t="s">
         <v>1352</v>
       </c>
@@ -22132,7 +22135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="474" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A474" t="s">
         <v>1354</v>
       </c>
@@ -22164,7 +22167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="475" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A475" t="s">
         <v>1356</v>
       </c>
@@ -22196,7 +22199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="476" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A476" t="s">
         <v>1358</v>
       </c>
@@ -22228,7 +22231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="477" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A477" t="s">
         <v>1360</v>
       </c>
@@ -22260,7 +22263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="478" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A478" t="s">
         <v>1362</v>
       </c>
@@ -22292,7 +22295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="479" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A479" t="s">
         <v>1364</v>
       </c>
@@ -22324,7 +22327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="480" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A480" t="s">
         <v>1365</v>
       </c>
@@ -22356,7 +22359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="481" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A481" t="s">
         <v>1367</v>
       </c>
@@ -22388,7 +22391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A482" t="s">
         <v>1368</v>
       </c>
@@ -22420,7 +22423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A483" t="s">
         <v>1370</v>
       </c>
@@ -22452,7 +22455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="484" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A484" t="s">
         <v>1372</v>
       </c>
@@ -22484,7 +22487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A485" t="s">
         <v>1374</v>
       </c>
@@ -22516,7 +22519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="486" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A486" t="s">
         <v>1376</v>
       </c>
@@ -22548,7 +22551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="487" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A487" t="s">
         <v>1378</v>
       </c>
@@ -22580,7 +22583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="488" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A488" t="s">
         <v>1380</v>
       </c>
@@ -22612,7 +22615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="489" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A489" t="s">
         <v>1382</v>
       </c>
@@ -22644,7 +22647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="490" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A490" t="s">
         <v>1384</v>
       </c>
@@ -22676,7 +22679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="491" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A491" t="s">
         <v>1385</v>
       </c>
@@ -22708,7 +22711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="492" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A492" t="s">
         <v>1387</v>
       </c>
@@ -22740,7 +22743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="493" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A493" t="s">
         <v>1389</v>
       </c>
@@ -22772,7 +22775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="494" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A494" t="s">
         <v>1391</v>
       </c>
@@ -22804,7 +22807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="495" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A495" t="s">
         <v>1392</v>
       </c>
@@ -22836,7 +22839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="496" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A496" t="s">
         <v>1394</v>
       </c>
@@ -22868,7 +22871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="497" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A497" t="s">
         <v>1396</v>
       </c>
@@ -22900,7 +22903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="498" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A498" t="s">
         <v>1398</v>
       </c>
@@ -22932,7 +22935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="499" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A499" t="s">
         <v>1400</v>
       </c>
@@ -22964,7 +22967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="500" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A500" t="s">
         <v>1402</v>
       </c>
@@ -22996,7 +22999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="501" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A501" t="s">
         <v>1404</v>
       </c>
@@ -23028,7 +23031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="502" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A502" t="s">
         <v>1405</v>
       </c>
@@ -23060,7 +23063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="503" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A503" t="s">
         <v>1407</v>
       </c>
@@ -23092,7 +23095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="504" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A504" t="s">
         <v>1410</v>
       </c>
@@ -23124,7 +23127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="505" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A505" t="s">
         <v>1414</v>
       </c>
@@ -23156,7 +23159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="506" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A506" t="s">
         <v>1416</v>
       </c>
@@ -23188,7 +23191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="507" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A507" t="s">
         <v>1419</v>
       </c>
@@ -23220,7 +23223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="508" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A508" t="s">
         <v>1422</v>
       </c>
@@ -23252,7 +23255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="509" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A509" t="s">
         <v>1424</v>
       </c>
@@ -23284,7 +23287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="510" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A510" t="s">
         <v>1425</v>
       </c>
@@ -23316,7 +23319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="511" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A511" t="s">
         <v>1427</v>
       </c>
@@ -23348,7 +23351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="512" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A512" t="s">
         <v>1429</v>
       </c>
@@ -23380,7 +23383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="513" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A513" t="s">
         <v>1431</v>
       </c>
@@ -23412,7 +23415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="514" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A514" t="s">
         <v>1433</v>
       </c>
@@ -23444,7 +23447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="515" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A515" t="s">
         <v>1434</v>
       </c>
@@ -23476,7 +23479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="516" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A516" t="s">
         <v>1436</v>
       </c>
@@ -23508,7 +23511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="517" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A517" t="s">
         <v>1438</v>
       </c>
@@ -23540,7 +23543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="518" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A518" t="s">
         <v>1440</v>
       </c>
@@ -23572,7 +23575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="519" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A519" t="s">
         <v>1442</v>
       </c>
@@ -23604,7 +23607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="520" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A520" t="s">
         <v>1445</v>
       </c>
@@ -23636,7 +23639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="521" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A521" t="s">
         <v>1447</v>
       </c>
@@ -23668,7 +23671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="522" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A522" t="s">
         <v>1448</v>
       </c>
@@ -23700,7 +23703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="523" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A523" t="s">
         <v>1450</v>
       </c>
@@ -23732,7 +23735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="524" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A524" t="s">
         <v>1453</v>
       </c>
@@ -23764,7 +23767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="525" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A525" t="s">
         <v>1455</v>
       </c>
@@ -23796,7 +23799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="526" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A526" t="s">
         <v>1457</v>
       </c>
@@ -23828,7 +23831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="527" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A527" t="s">
         <v>1458</v>
       </c>
@@ -23860,7 +23863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="528" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A528" t="s">
         <v>1460</v>
       </c>
@@ -23892,7 +23895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="529" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A529" t="s">
         <v>1462</v>
       </c>
@@ -23924,7 +23927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="530" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A530" t="s">
         <v>1464</v>
       </c>
@@ -23956,7 +23959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="531" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A531" t="s">
         <v>1466</v>
       </c>
@@ -23988,7 +23991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="532" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A532" t="s">
         <v>1470</v>
       </c>
@@ -24020,7 +24023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="533" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A533" t="s">
         <v>1472</v>
       </c>
@@ -24052,7 +24055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="534" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A534" t="s">
         <v>1474</v>
       </c>
@@ -24084,7 +24087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="535" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A535" t="s">
         <v>1476</v>
       </c>
@@ -24116,7 +24119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="536" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A536" t="s">
         <v>1478</v>
       </c>
@@ -24148,7 +24151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="537" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A537" t="s">
         <v>1480</v>
       </c>
@@ -24180,7 +24183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="538" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A538" t="s">
         <v>1482</v>
       </c>
@@ -24212,7 +24215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="539" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A539" t="s">
         <v>1483</v>
       </c>
@@ -24244,7 +24247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="540" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A540" t="s">
         <v>1485</v>
       </c>
@@ -24276,7 +24279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="541" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A541" t="s">
         <v>1487</v>
       </c>
@@ -24308,7 +24311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="542" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A542" t="s">
         <v>1490</v>
       </c>
@@ -24340,7 +24343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="543" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A543" t="s">
         <v>1493</v>
       </c>
@@ -24372,7 +24375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="544" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A544" t="s">
         <v>1495</v>
       </c>
@@ -24404,7 +24407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="545" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A545" t="s">
         <v>1497</v>
       </c>
@@ -24436,7 +24439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="546" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A546" t="s">
         <v>1498</v>
       </c>
@@ -24468,7 +24471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="547" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A547" t="s">
         <v>1500</v>
       </c>
@@ -24500,7 +24503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="548" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A548" t="s">
         <v>1503</v>
       </c>
@@ -24532,7 +24535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="549" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A549" t="s">
         <v>1505</v>
       </c>
@@ -24564,7 +24567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A550" t="s">
         <v>1507</v>
       </c>
@@ -24596,7 +24599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="551" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A551" t="s">
         <v>1510</v>
       </c>
@@ -24628,7 +24631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="552" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A552" t="s">
         <v>1512</v>
       </c>
@@ -24660,7 +24663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="553" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A553" t="s">
         <v>1513</v>
       </c>
@@ -24692,7 +24695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="554" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A554" t="s">
         <v>1517</v>
       </c>
@@ -24724,7 +24727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="555" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A555" t="s">
         <v>1520</v>
       </c>
@@ -24756,7 +24759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="556" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A556" t="s">
         <v>1522</v>
       </c>
@@ -24788,7 +24791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A557" t="s">
         <v>1528</v>
       </c>
@@ -24820,7 +24823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="558" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A558" t="s">
         <v>1532</v>
       </c>
@@ -24852,7 +24855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="559" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A559" t="s">
         <v>1537</v>
       </c>
@@ -24884,7 +24887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="560" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A560" t="s">
         <v>1540</v>
       </c>
@@ -24916,7 +24919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="561" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A561" t="s">
         <v>1542</v>
       </c>
@@ -24948,7 +24951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="562" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A562" t="s">
         <v>1544</v>
       </c>
@@ -24980,7 +24983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="563" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A563" t="s">
         <v>1549</v>
       </c>
@@ -25012,7 +25015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="564" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A564" t="s">
         <v>1551</v>
       </c>
@@ -25044,7 +25047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="565" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A565" t="s">
         <v>1553</v>
       </c>
@@ -25076,7 +25079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A566" t="s">
         <v>1559</v>
       </c>
@@ -25108,7 +25111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="567" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A567" t="s">
         <v>1561</v>
       </c>
@@ -25140,7 +25143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="568" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A568" t="s">
         <v>1564</v>
       </c>
@@ -25172,7 +25175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="569" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A569" t="s">
         <v>1566</v>
       </c>
@@ -25204,7 +25207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="570" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A570" t="s">
         <v>1567</v>
       </c>
@@ -25236,7 +25239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="571" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A571" t="s">
         <v>1569</v>
       </c>
@@ -25268,7 +25271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="572" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A572" t="s">
         <v>1570</v>
       </c>
@@ -25300,7 +25303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="573" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A573" t="s">
         <v>1572</v>
       </c>
@@ -25332,7 +25335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="574" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A574" t="s">
         <v>1574</v>
       </c>
@@ -25364,7 +25367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="575" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A575" t="s">
         <v>1576</v>
       </c>
@@ -25396,7 +25399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="576" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A576" t="s">
         <v>1578</v>
       </c>
@@ -25428,7 +25431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="577" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A577" t="s">
         <v>1580</v>
       </c>
@@ -25460,7 +25463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="578" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A578" t="s">
         <v>1582</v>
       </c>
@@ -25492,7 +25495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="579" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A579" t="s">
         <v>1584</v>
       </c>
@@ -25524,7 +25527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="580" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A580" t="s">
         <v>1587</v>
       </c>
@@ -25556,7 +25559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="581" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A581" t="s">
         <v>1589</v>
       </c>
@@ -25588,7 +25591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="582" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A582" t="s">
         <v>1591</v>
       </c>
@@ -25620,7 +25623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="583" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A583" t="s">
         <v>1593</v>
       </c>
@@ -25652,7 +25655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="584" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A584" t="s">
         <v>1595</v>
       </c>
@@ -25684,7 +25687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="585" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A585" t="s">
         <v>1597</v>
       </c>
@@ -25716,7 +25719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="586" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A586" t="s">
         <v>1598</v>
       </c>
@@ -25748,7 +25751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="587" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A587" t="s">
         <v>1604</v>
       </c>
@@ -25780,7 +25783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="588" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A588" t="s">
         <v>1606</v>
       </c>
@@ -25812,7 +25815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="589" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A589" t="s">
         <v>1607</v>
       </c>
@@ -25844,7 +25847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A590" t="s">
         <v>1608</v>
       </c>
@@ -25876,7 +25879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="591" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A591" t="s">
         <v>1610</v>
       </c>
@@ -25908,7 +25911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="592" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A592" t="s">
         <v>1614</v>
       </c>
@@ -25940,7 +25943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="593" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A593" t="s">
         <v>1620</v>
       </c>
@@ -25972,7 +25975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="594" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A594" t="s">
         <v>1622</v>
       </c>
@@ -26004,7 +26007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="595" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A595" t="s">
         <v>1624</v>
       </c>
@@ -26036,7 +26039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="596" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A596" t="s">
         <v>1626</v>
       </c>
@@ -26068,7 +26071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="597" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A597" t="s">
         <v>1627</v>
       </c>
@@ -26100,7 +26103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="598" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A598" t="s">
         <v>1629</v>
       </c>
@@ -26132,7 +26135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="599" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A599" t="s">
         <v>1631</v>
       </c>
@@ -26164,7 +26167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="600" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A600" t="s">
         <v>1634</v>
       </c>
@@ -26196,7 +26199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="601" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A601" t="s">
         <v>1636</v>
       </c>
@@ -26228,7 +26231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="602" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A602" t="s">
         <v>1638</v>
       </c>
@@ -26260,7 +26263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="603" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A603" t="s">
         <v>1640</v>
       </c>
@@ -26292,7 +26295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="604" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A604" t="s">
         <v>1642</v>
       </c>
@@ -26324,7 +26327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="605" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A605" t="s">
         <v>1647</v>
       </c>
@@ -26356,7 +26359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="606" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A606" t="s">
         <v>1650</v>
       </c>
@@ -26388,7 +26391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="607" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A607" t="s">
         <v>1653</v>
       </c>
@@ -26420,7 +26423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A608" t="s">
         <v>1655</v>
       </c>
@@ -26452,7 +26455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="609" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A609" t="s">
         <v>1657</v>
       </c>
@@ -26484,7 +26487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="610" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A610" t="s">
         <v>1659</v>
       </c>
@@ -26516,7 +26519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="611" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A611" t="s">
         <v>1661</v>
       </c>
@@ -26548,7 +26551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="612" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A612" t="s">
         <v>1662</v>
       </c>
@@ -26580,7 +26583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="613" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A613" t="s">
         <v>1664</v>
       </c>
@@ -26612,7 +26615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="614" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A614" t="s">
         <v>1667</v>
       </c>
@@ -26644,7 +26647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="615" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A615" t="s">
         <v>1668</v>
       </c>
@@ -26676,7 +26679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="616" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A616" t="s">
         <v>1670</v>
       </c>
@@ -26708,7 +26711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A617" t="s">
         <v>1672</v>
       </c>
@@ -26740,7 +26743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="618" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A618" t="s">
         <v>1674</v>
       </c>
@@ -26772,7 +26775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="619" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A619" t="s">
         <v>1678</v>
       </c>
@@ -26804,7 +26807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="620" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A620" t="s">
         <v>1685</v>
       </c>
@@ -26836,7 +26839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="621" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A621" t="s">
         <v>1687</v>
       </c>
@@ -26868,7 +26871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="622" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A622" t="s">
         <v>1689</v>
       </c>
@@ -26900,7 +26903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="623" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A623" t="s">
         <v>1691</v>
       </c>
@@ -26932,7 +26935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="624" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A624" t="s">
         <v>1693</v>
       </c>
@@ -26964,7 +26967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="625" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A625" t="s">
         <v>1695</v>
       </c>
@@ -26996,7 +26999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="626" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A626" t="s">
         <v>1697</v>
       </c>
@@ -27028,7 +27031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="627" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A627" t="s">
         <v>1699</v>
       </c>
@@ -27060,7 +27063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A628" t="s">
         <v>1700</v>
       </c>
@@ -27092,7 +27095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="629" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A629" t="s">
         <v>1702</v>
       </c>
@@ -27124,7 +27127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="630" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A630" t="s">
         <v>1704</v>
       </c>
@@ -27156,7 +27159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="631" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A631" t="s">
         <v>1706</v>
       </c>
@@ -27188,7 +27191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="632" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A632" t="s">
         <v>1708</v>
       </c>
@@ -27220,7 +27223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A633" t="s">
         <v>1710</v>
       </c>
@@ -27252,7 +27255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="634" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A634" t="s">
         <v>1712</v>
       </c>
@@ -27284,7 +27287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="635" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A635" t="s">
         <v>1714</v>
       </c>
@@ -27316,7 +27319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="636" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A636" t="s">
         <v>1716</v>
       </c>
@@ -27348,7 +27351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="637" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A637" t="s">
         <v>1718</v>
       </c>
@@ -27380,7 +27383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="638" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A638" t="s">
         <v>1720</v>
       </c>
@@ -27412,7 +27415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="639" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A639" t="s">
         <v>1721</v>
       </c>
@@ -27444,7 +27447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A640" t="s">
         <v>1723</v>
       </c>
@@ -27476,7 +27479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="641" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A641" t="s">
         <v>1727</v>
       </c>
@@ -27508,7 +27511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="642" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A642" t="s">
         <v>1729</v>
       </c>
@@ -27540,7 +27543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="643" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A643" t="s">
         <v>1731</v>
       </c>
@@ -27572,7 +27575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="644" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A644" t="s">
         <v>1733</v>
       </c>
@@ -27604,7 +27607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="645" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A645" t="s">
         <v>1735</v>
       </c>
@@ -27636,7 +27639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="646" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A646" t="s">
         <v>1738</v>
       </c>
@@ -27668,7 +27671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="647" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A647" t="s">
         <v>1742</v>
       </c>
@@ -27700,7 +27703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="648" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A648" t="s">
         <v>1745</v>
       </c>
@@ -27732,7 +27735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="649" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A649" t="s">
         <v>1748</v>
       </c>
@@ -27764,7 +27767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A650" t="s">
         <v>1750</v>
       </c>
@@ -27796,7 +27799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="651" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A651" t="s">
         <v>1753</v>
       </c>
@@ -27828,7 +27831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="652" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A652" t="s">
         <v>1755</v>
       </c>
@@ -27860,7 +27863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="653" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A653" t="s">
         <v>1757</v>
       </c>
@@ -27892,7 +27895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="654" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A654" t="s">
         <v>1759</v>
       </c>
@@ -27924,7 +27927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A655" t="s">
         <v>1761</v>
       </c>
@@ -27956,7 +27959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A656" t="s">
         <v>1763</v>
       </c>
@@ -27988,7 +27991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="657" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A657" t="s">
         <v>1766</v>
       </c>
@@ -28020,7 +28023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="658" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A658" t="s">
         <v>1768</v>
       </c>
@@ -28052,7 +28055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A659" t="s">
         <v>1770</v>
       </c>
@@ -28084,7 +28087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="660" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A660" t="s">
         <v>1773</v>
       </c>
@@ -28116,7 +28119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="661" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A661" t="s">
         <v>1774</v>
       </c>
@@ -28148,7 +28151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A662" t="s">
         <v>1775</v>
       </c>
@@ -28180,7 +28183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="663" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A663" t="s">
         <v>1777</v>
       </c>
@@ -28212,7 +28215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="664" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A664" t="s">
         <v>1779</v>
       </c>
@@ -28244,7 +28247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="665" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A665" t="s">
         <v>1782</v>
       </c>
@@ -28276,7 +28279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="666" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A666" t="s">
         <v>1783</v>
       </c>
@@ -28308,7 +28311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="667" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A667" t="s">
         <v>1785</v>
       </c>
@@ -28340,7 +28343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="668" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A668" t="s">
         <v>1787</v>
       </c>
@@ -28372,7 +28375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="669" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A669" t="s">
         <v>1789</v>
       </c>
@@ -28404,7 +28407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="670" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A670" t="s">
         <v>1791</v>
       </c>
@@ -28436,7 +28439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="671" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A671" t="s">
         <v>1793</v>
       </c>
@@ -28468,7 +28471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="672" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A672" t="s">
         <v>1794</v>
       </c>
@@ -28500,7 +28503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="673" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A673" t="s">
         <v>1796</v>
       </c>
@@ -28532,7 +28535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="674" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A674" t="s">
         <v>1798</v>
       </c>
@@ -28564,7 +28567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="675" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A675" t="s">
         <v>1800</v>
       </c>
@@ -28596,7 +28599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A676" t="s">
         <v>1802</v>
       </c>
@@ -28628,7 +28631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="677" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A677" t="s">
         <v>1803</v>
       </c>
@@ -28660,7 +28663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A678" t="s">
         <v>1805</v>
       </c>
@@ -28692,7 +28695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="679" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A679" t="s">
         <v>1807</v>
       </c>
@@ -28724,7 +28727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="680" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A680" t="s">
         <v>1809</v>
       </c>
@@ -28756,7 +28759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="681" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A681" t="s">
         <v>1811</v>
       </c>
@@ -28788,7 +28791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="682" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A682" t="s">
         <v>1812</v>
       </c>
@@ -28820,7 +28823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="683" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A683" t="s">
         <v>1814</v>
       </c>
@@ -28852,7 +28855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="684" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A684" t="s">
         <v>1816</v>
       </c>
@@ -28884,7 +28887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="685" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A685" t="s">
         <v>1818</v>
       </c>
@@ -28916,7 +28919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="686" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A686" t="s">
         <v>1820</v>
       </c>
@@ -28948,7 +28951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="687" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A687" t="s">
         <v>1821</v>
       </c>
@@ -28980,7 +28983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="688" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A688" t="s">
         <v>1823</v>
       </c>
@@ -29012,7 +29015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="689" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A689" t="s">
         <v>1825</v>
       </c>
@@ -29044,7 +29047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="690" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A690" t="s">
         <v>1827</v>
       </c>
@@ -29076,7 +29079,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="691" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A691" t="s">
         <v>1828</v>
       </c>
@@ -29108,7 +29111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="692" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A692" t="s">
         <v>1829</v>
       </c>
@@ -29140,7 +29143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="693" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A693" t="s">
         <v>1832</v>
       </c>
@@ -29172,7 +29175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="694" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A694" t="s">
         <v>1833</v>
       </c>
@@ -29204,7 +29207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="695" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A695" t="s">
         <v>1838</v>
       </c>
@@ -29236,7 +29239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="696" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A696" t="s">
         <v>1841</v>
       </c>
@@ -29268,7 +29271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A697" t="s">
         <v>1845</v>
       </c>
@@ -29300,7 +29303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="698" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A698" t="s">
         <v>1849</v>
       </c>
@@ -29332,7 +29335,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="699" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A699" t="s">
         <v>1853</v>
       </c>
@@ -29364,7 +29367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A700" t="s">
         <v>1855</v>
       </c>
@@ -29396,7 +29399,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="701" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A701" t="s">
         <v>1858</v>
       </c>
@@ -29428,7 +29431,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="702" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A702" t="s">
         <v>1861</v>
       </c>
@@ -29460,7 +29463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="703" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A703" t="s">
         <v>1865</v>
       </c>
@@ -29492,7 +29495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="704" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A704" t="s">
         <v>1866</v>
       </c>
@@ -29524,7 +29527,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="705" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A705" t="s">
         <v>1868</v>
       </c>
@@ -29556,7 +29559,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="706" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A706" t="s">
         <v>1871</v>
       </c>
@@ -29588,7 +29591,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="707" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A707" t="s">
         <v>1875</v>
       </c>
@@ -29620,7 +29623,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="708" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A708" t="s">
         <v>1879</v>
       </c>
@@ -29652,7 +29655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="709" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A709" t="s">
         <v>1881</v>
       </c>
@@ -29684,7 +29687,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="710" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A710" t="s">
         <v>1883</v>
       </c>
@@ -29716,7 +29719,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="711" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A711" t="s">
         <v>1888</v>
       </c>
@@ -29748,7 +29751,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="712" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A712" t="s">
         <v>1893</v>
       </c>
@@ -29780,7 +29783,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="713" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A713" t="s">
         <v>1898</v>
       </c>
@@ -29812,7 +29815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="714" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A714" t="s">
         <v>1900</v>
       </c>
@@ -29844,7 +29847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="715" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A715" t="s">
         <v>1903</v>
       </c>
@@ -29876,7 +29879,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="716" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A716" t="s">
         <v>1908</v>
       </c>
@@ -29908,7 +29911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A717" t="s">
         <v>1912</v>
       </c>
@@ -29940,7 +29943,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A718" t="s">
         <v>1915</v>
       </c>
@@ -29972,7 +29975,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="719" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A719" t="s">
         <v>1917</v>
       </c>
@@ -30004,7 +30007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="720" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A720" t="s">
         <v>1920</v>
       </c>
@@ -30036,7 +30039,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="721" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A721" t="s">
         <v>1922</v>
       </c>
@@ -30068,7 +30071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="722" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A722" t="s">
         <v>1924</v>
       </c>
@@ -30100,7 +30103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A723" t="s">
         <v>1925</v>
       </c>
@@ -30132,7 +30135,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="724" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A724" t="s">
         <v>1928</v>
       </c>
@@ -30164,7 +30167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="725" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A725" t="s">
         <v>1931</v>
       </c>
@@ -30196,7 +30199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="726" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A726" t="s">
         <v>1937</v>
       </c>
@@ -30228,7 +30231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="727" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A727" t="s">
         <v>1942</v>
       </c>
@@ -30260,7 +30263,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="728" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A728" t="s">
         <v>1944</v>
       </c>
@@ -30292,7 +30295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="729" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A729" t="s">
         <v>1949</v>
       </c>
@@ -30324,7 +30327,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="730" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A730" t="s">
         <v>1954</v>
       </c>
@@ -30356,7 +30359,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="731" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A731" t="s">
         <v>1956</v>
       </c>
@@ -30388,7 +30391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="732" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A732" t="s">
         <v>1959</v>
       </c>
@@ -30420,7 +30423,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="733" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A733" t="s">
         <v>1964</v>
       </c>
@@ -30452,7 +30455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="734" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A734" t="s">
         <v>1966</v>
       </c>
@@ -30484,7 +30487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="735" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A735" t="s">
         <v>1968</v>
       </c>
@@ -30516,7 +30519,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="736" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A736" t="s">
         <v>1975</v>
       </c>
@@ -30548,7 +30551,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="737" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A737" t="s">
         <v>1980</v>
       </c>
@@ -30580,7 +30583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="738" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A738" t="s">
         <v>1986</v>
       </c>
@@ -30612,7 +30615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="739" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A739" t="s">
         <v>1990</v>
       </c>
@@ -30644,7 +30647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A740" t="s">
         <v>1996</v>
       </c>
@@ -30676,7 +30679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="741" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A741" t="s">
         <v>2001</v>
       </c>
@@ -30708,7 +30711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="742" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A742" t="s">
         <v>2006</v>
       </c>
@@ -30740,7 +30743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="743" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A743" t="s">
         <v>2010</v>
       </c>
@@ -30772,7 +30775,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="744" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A744" t="s">
         <v>2012</v>
       </c>
@@ -30804,7 +30807,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="745" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A745" t="s">
         <v>2014</v>
       </c>
@@ -30836,7 +30839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="746" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A746" t="s">
         <v>2017</v>
       </c>
@@ -30868,7 +30871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="747" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A747" t="s">
         <v>2020</v>
       </c>
@@ -30900,7 +30903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A748" t="s">
         <v>2022</v>
       </c>
@@ -30932,7 +30935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="749" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A749" t="s">
         <v>2024</v>
       </c>
@@ -30964,7 +30967,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="750" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A750" t="s">
         <v>2027</v>
       </c>
@@ -30996,7 +30999,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="751" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A751" t="s">
         <v>2029</v>
       </c>
@@ -31028,7 +31031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="752" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A752" t="s">
         <v>2031</v>
       </c>
@@ -31060,7 +31063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="753" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A753" t="s">
         <v>2033</v>
       </c>
@@ -31092,7 +31095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="754" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A754" t="s">
         <v>2036</v>
       </c>
@@ -31124,7 +31127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="755" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A755" t="s">
         <v>2041</v>
       </c>
@@ -31156,7 +31159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="756" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A756" t="s">
         <v>2043</v>
       </c>
@@ -31188,7 +31191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="757" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A757" t="s">
         <v>2046</v>
       </c>
@@ -31220,7 +31223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="758" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A758" t="s">
         <v>2048</v>
       </c>
@@ -31252,7 +31255,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="759" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A759" t="s">
         <v>2051</v>
       </c>
@@ -31284,7 +31287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="760" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A760" t="s">
         <v>2053</v>
       </c>
@@ -31316,7 +31319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="761" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A761" t="s">
         <v>2055</v>
       </c>
@@ -31348,7 +31351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="762" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A762" t="s">
         <v>2057</v>
       </c>
@@ -31380,7 +31383,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="763" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A763" t="s">
         <v>2062</v>
       </c>
@@ -31412,7 +31415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A764" t="s">
         <v>2065</v>
       </c>
@@ -31444,7 +31447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="765" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A765" t="s">
         <v>2069</v>
       </c>
@@ -31476,7 +31479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="766" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A766" t="s">
         <v>2073</v>
       </c>
@@ -31508,7 +31511,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="767" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A767" t="s">
         <v>2075</v>
       </c>
@@ -31540,7 +31543,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="768" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A768" t="s">
         <v>2077</v>
       </c>
@@ -31572,7 +31575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="769" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A769" t="s">
         <v>2079</v>
       </c>
@@ -31604,7 +31607,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A770" t="s">
         <v>2081</v>
       </c>
@@ -31636,7 +31639,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="771" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A771" t="s">
         <v>2087</v>
       </c>
@@ -31668,7 +31671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="772" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A772" t="s">
         <v>2092</v>
       </c>
@@ -31700,7 +31703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="773" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A773" t="s">
         <v>2095</v>
       </c>
@@ -31732,7 +31735,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="774" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A774" t="s">
         <v>2097</v>
       </c>
@@ -31764,7 +31767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="775" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A775" t="s">
         <v>2099</v>
       </c>
@@ -31796,7 +31799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="776" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A776" t="s">
         <v>2101</v>
       </c>
@@ -31828,7 +31831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="777" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A777" t="s">
         <v>2104</v>
       </c>
@@ -31860,7 +31863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="778" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A778" t="s">
         <v>2108</v>
       </c>
@@ -31892,7 +31895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="779" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A779" t="s">
         <v>2111</v>
       </c>
@@ -31924,7 +31927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="780" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A780" t="s">
         <v>2114</v>
       </c>
@@ -31956,7 +31959,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="781" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A781" t="s">
         <v>2117</v>
       </c>
@@ -31988,7 +31991,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="782" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A782" t="s">
         <v>2118</v>
       </c>
@@ -32020,7 +32023,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="783" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A783" t="s">
         <v>2124</v>
       </c>
@@ -32052,7 +32055,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="784" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A784" t="s">
         <v>2128</v>
       </c>
@@ -32084,7 +32087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="785" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A785" t="s">
         <v>2130</v>
       </c>
@@ -32116,7 +32119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="786" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A786" t="s">
         <v>2133</v>
       </c>
@@ -32148,7 +32151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="787" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A787" t="s">
         <v>2135</v>
       </c>
@@ -32180,7 +32183,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="788" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A788" t="s">
         <v>2136</v>
       </c>
@@ -32212,7 +32215,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A789" t="s">
         <v>2139</v>
       </c>
@@ -32244,7 +32247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A790" t="s">
         <v>2141</v>
       </c>
@@ -32276,7 +32279,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="791" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A791" t="s">
         <v>2143</v>
       </c>
@@ -32308,7 +32311,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A792" t="s">
         <v>2145</v>
       </c>
@@ -32340,7 +32343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="793" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A793" t="s">
         <v>2147</v>
       </c>
@@ -32372,7 +32375,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="794" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A794" t="s">
         <v>2150</v>
       </c>
@@ -32404,7 +32407,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="795" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A795" t="s">
         <v>2152</v>
       </c>
@@ -32436,7 +32439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="796" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A796" t="s">
         <v>2155</v>
       </c>
@@ -32468,7 +32471,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="797" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A797" t="s">
         <v>2157</v>
       </c>
@@ -32500,7 +32503,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="798" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A798" t="s">
         <v>2159</v>
       </c>
@@ -32532,7 +32535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="799" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A799" t="s">
         <v>2161</v>
       </c>
@@ -32564,7 +32567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="800" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A800" t="s">
         <v>2164</v>
       </c>
@@ -32596,7 +32599,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="801" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A801" t="s">
         <v>2167</v>
       </c>
@@ -32628,7 +32631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="802" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A802" t="s">
         <v>2170</v>
       </c>
@@ -32660,7 +32663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="803" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A803" t="s">
         <v>2172</v>
       </c>
@@ -32692,7 +32695,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="804" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A804" t="s">
         <v>2174</v>
       </c>
@@ -32724,7 +32727,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A805" t="s">
         <v>2176</v>
       </c>
@@ -32756,7 +32759,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="806" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A806" t="s">
         <v>2179</v>
       </c>
@@ -32788,7 +32791,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="807" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A807" t="s">
         <v>2181</v>
       </c>
@@ -32820,7 +32823,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="808" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A808" t="s">
         <v>2183</v>
       </c>
@@ -32852,7 +32855,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="809" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A809" t="s">
         <v>2185</v>
       </c>
@@ -32884,7 +32887,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="810" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A810" t="s">
         <v>2187</v>
       </c>
@@ -32916,7 +32919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="811" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A811" t="s">
         <v>2189</v>
       </c>
@@ -32948,7 +32951,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="812" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A812" t="s">
         <v>2191</v>
       </c>
@@ -32980,7 +32983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="813" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A813" t="s">
         <v>2196</v>
       </c>
@@ -33012,7 +33015,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="814" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A814" t="s">
         <v>2199</v>
       </c>
@@ -33044,7 +33047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="815" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A815" t="s">
         <v>2202</v>
       </c>
